--- a/xls/equipMake.xlsx
+++ b/xls/equipMake.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="13260" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@装备制作表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,98 +191,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101501:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101501:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101501:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101501:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101501:6</t>
-  </si>
-  <si>
-    <t>101501:7</t>
-  </si>
-  <si>
-    <t>101501:8</t>
-  </si>
-  <si>
-    <t>101501:9</t>
-  </si>
-  <si>
-    <t>101501:10</t>
-  </si>
-  <si>
-    <t>101501:11</t>
-  </si>
-  <si>
-    <t>101501:12</t>
-  </si>
-  <si>
-    <t>101501:13</t>
-  </si>
-  <si>
-    <t>101501:14</t>
-  </si>
-  <si>
-    <t>101501:15</t>
-  </si>
-  <si>
-    <t>101501:16</t>
-  </si>
-  <si>
-    <t>101501:17</t>
-  </si>
-  <si>
-    <t>101501:18</t>
-  </si>
-  <si>
-    <t>101501:19</t>
-  </si>
-  <si>
-    <t>101501:20</t>
-  </si>
-  <si>
-    <t>101501:21</t>
-  </si>
-  <si>
-    <t>101501:22</t>
-  </si>
-  <si>
-    <t>101501:23</t>
-  </si>
-  <si>
-    <t>101501:24</t>
-  </si>
-  <si>
-    <t>101501:25</t>
-  </si>
-  <si>
-    <t>101501:26</t>
-  </si>
-  <si>
-    <t>101501:27</t>
-  </si>
-  <si>
-    <t>101501:28</t>
-  </si>
-  <si>
-    <t>101501:29</t>
-  </si>
-  <si>
-    <t>101501:30</t>
-  </si>
-  <si>
-    <t>101501:31</t>
+    <t>101501:1</t>
+  </si>
+  <si>
+    <t>101501:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101501:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -670,7 +595,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,7 +628,9 @@
       <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -732,7 +659,9 @@
       <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -759,9 +688,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -790,7 +721,9 @@
       <c r="D4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4">
+        <v>1000</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -817,9 +750,11 @@
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -846,9 +781,11 @@
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -875,9 +812,11 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -904,9 +843,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -933,9 +874,11 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -962,9 +905,11 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -991,9 +936,11 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1020,9 +967,11 @@
         <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1049,9 +998,11 @@
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1078,9 +1029,11 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1107,9 +1060,11 @@
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1136,9 +1091,11 @@
         <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1165,9 +1122,11 @@
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1194,9 +1153,11 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1223,9 +1184,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1252,9 +1215,11 @@
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1281,9 +1246,11 @@
         <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1310,9 +1277,11 @@
         <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1339,9 +1308,11 @@
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1368,9 +1339,11 @@
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1397,9 +1370,11 @@
         <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1426,9 +1401,11 @@
         <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1455,9 +1432,11 @@
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>1000</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1484,9 +1463,11 @@
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1513,9 +1494,11 @@
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>1000</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1542,9 +1525,11 @@
         <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1571,9 +1556,11 @@
         <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1600,9 +1587,11 @@
         <v>14</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <v>1000</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>

--- a/xls/equipMake.xlsx
+++ b/xls/equipMake.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,81 +38,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山寨发带</t>
-  </si>
-  <si>
     <t>头带</t>
   </si>
   <si>
-    <t>山寨球衣</t>
-  </si>
-  <si>
     <t>球衣</t>
   </si>
   <si>
-    <t>山寨球裤</t>
-  </si>
-  <si>
     <t>球裤</t>
   </si>
   <si>
-    <t>山寨护腿板</t>
-  </si>
-  <si>
     <t>护腿板</t>
   </si>
   <si>
-    <t>山寨球鞋</t>
-  </si>
-  <si>
     <t>球鞋</t>
   </si>
   <si>
-    <t>高仿发带</t>
-  </si>
-  <si>
-    <t>高仿球衣</t>
-  </si>
-  <si>
-    <t>高仿球裤</t>
-  </si>
-  <si>
-    <t>高仿护腿板</t>
-  </si>
-  <si>
-    <t>高仿球鞋</t>
-  </si>
-  <si>
-    <t>正品发带</t>
-  </si>
-  <si>
-    <t>正品球衣</t>
-  </si>
-  <si>
-    <t>正品球裤</t>
-  </si>
-  <si>
-    <t>正品护腿板</t>
-  </si>
-  <si>
-    <t>正品球鞋</t>
-  </si>
-  <si>
-    <t>纳米发带</t>
-  </si>
-  <si>
-    <t>纳米球衣</t>
-  </si>
-  <si>
-    <t>纳米球裤</t>
-  </si>
-  <si>
-    <t>纳米护腿板</t>
-  </si>
-  <si>
-    <t>纳米球鞋</t>
-  </si>
-  <si>
     <t>钛金发带</t>
   </si>
   <si>
@@ -128,21 +68,6 @@
     <t>钛金球鞋</t>
   </si>
   <si>
-    <t>碳纤维发带</t>
-  </si>
-  <si>
-    <t>碳纤维球衣</t>
-  </si>
-  <si>
-    <t>碳纤维球裤</t>
-  </si>
-  <si>
-    <t>碳纤维护腿板</t>
-  </si>
-  <si>
-    <t>碳纤维球鞋</t>
-  </si>
-  <si>
     <t>头带:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,27 +112,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101501:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101501:1</t>
-  </si>
-  <si>
-    <t>101501:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101501:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>money[.][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α元素发带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α元素球衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α元素球裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α元素护腿板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α元素球鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超纤维发带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超纤维球衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超纤维球裤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超纤维护腿板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超纤维球鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101201:1;105001:1;105016:10;105017:50</t>
+  </si>
+  <si>
+    <t>101202:1;105002:1;105016:10;105017:50</t>
+  </si>
+  <si>
+    <t>101203:1;105003:1;105016:10;105017:50</t>
+  </si>
+  <si>
+    <t>101204:1;105004:1;105016:10;105017:50</t>
+  </si>
+  <si>
+    <t>101205:1;105005:1;105016:10;105017:50</t>
+  </si>
+  <si>
+    <t>101201:1;105006:1;105018:10;105019:50</t>
+  </si>
+  <si>
+    <t>101202:1;105007:1;105018:10;105019:50</t>
+  </si>
+  <si>
+    <t>101203:1;105008:1;105018:10;105019:50</t>
+  </si>
+  <si>
+    <t>101204:1;105009:1;105018:10;105019:50</t>
+  </si>
+  <si>
+    <t>101205:1;105010:1;105018:10;105019:50</t>
+  </si>
+  <si>
+    <t>101201:1;105011:1;105020:10;105021:50</t>
+  </si>
+  <si>
+    <t>101202:1;105012:1;105020:10;105021:50</t>
+  </si>
+  <si>
+    <t>101203:1;105013:1;105020:10;105021:50</t>
+  </si>
+  <si>
+    <t>101204:1;105014:1;105020:10;105021:50</t>
+  </si>
+  <si>
+    <t>101205:1;105055:1;105020:10;105021:50</t>
   </si>
 </sst>
 </file>
@@ -592,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,7 +602,7 @@
     <col min="1" max="1" width="21.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="26.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="22.875" style="3" customWidth="1"/>
@@ -626,10 +625,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -640,10 +639,10 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -657,10 +656,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -671,27 +670,27 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>101001</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>101301</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -710,19 +709,19 @@
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>101002</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>101302</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -741,19 +740,19 @@
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>101003</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>101303</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -772,19 +771,19 @@
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>101004</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>101304</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -803,19 +802,19 @@
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>101005</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>101305</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -834,19 +833,19 @@
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>101101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>101401</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -865,19 +864,19 @@
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>101102</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>101402</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -896,19 +895,19 @@
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>101103</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>101403</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -927,19 +926,19 @@
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>101104</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>101404</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -958,19 +957,19 @@
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>101105</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>101405</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -989,19 +988,19 @@
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>101201</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>101501</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1020,19 +1019,19 @@
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>101202</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>101502</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1051,19 +1050,19 @@
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>101203</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>101503</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1082,19 +1081,19 @@
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>101204</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>101504</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1113,19 +1112,19 @@
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>101205</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>101505</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1142,475 +1141,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>101301</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>101302</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>101303</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>101304</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>101305</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>101401</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>101402</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>101403</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>101404</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>101405</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>101501</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28">
-        <v>1000</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>101502</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>101503</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>101504</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31">
-        <v>1000</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>101505</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32">
-        <v>1000</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C169">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C154">
       <formula1>"头,上身,下身"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1637,31 +1171,31 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
     </row>

--- a/xls/equipMake.xlsx
+++ b/xls/equipMake.xlsx
@@ -206,7 +206,8 @@
     <t>101204:1;105014:1;105020:10;105021:50</t>
   </si>
   <si>
-    <t>101205:1;105055:1;105020:10;105021:50</t>
+    <t>101205:1;105015:1;105020:10;105021:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -594,7 +595,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
